--- a/www/IndicatorsPerCountry/Serbia_ArmedconflictsInternal_TerritorialRef_2008_2012_CCode_688.xlsx
+++ b/www/IndicatorsPerCountry/Serbia_ArmedconflictsInternal_TerritorialRef_2008_2012_CCode_688.xlsx
@@ -69,13 +69,13 @@
     <t>Brecke, Peter (2015). Armed conflicts (Internal). http://hdl.handle.net/10622/ORW1HI, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_ORW1HI.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_ORW1HI.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_ORW1HI.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.bib</t>
   </si>
 </sst>
 </file>
